--- a/biology/Botanique/Caryocar/Caryocar.xlsx
+++ b/biology/Botanique/Caryocar/Caryocar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caryocar est un genre de plantes à fleurs de la famille des Caryocaraceae, comptant une quinzaine d'espèces sud-américaines.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (26 mars 2022)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (26 mars 2022) :
 Caryocar amygdaliferum Mutis
 Caryocar amygdaliferum Mutis ex Cav.
 Caryocar amygdaliforme G.Don
@@ -537,7 +551,7 @@
 Caryocar nuciferum L.
 Caryocar pallidum A.C.Sm.
 Caryocar villosum (Aubl.) Pers.
-Selon World Flora Online (WFO)       (26 mars 2022)[4] :
+Selon World Flora Online (WFO)       (26 mars 2022) :
 Caryocar amygdaliferum Mutis ex Cav.
 Caryocar amygdaliforme G.Don
 Caryocar brasiliense A.St.-Hil.
@@ -554,7 +568,7 @@
 Caryocar nuciferum L.
 Caryocar pallidum A.C.Sm.
 Caryocar villosum (Aubl.) Pers.
-Espèces valides selon The Plant List[5] :
+Espèces valides selon The Plant List :
 Caryocar amygdaliferum Mutis ex Cav.
 Caryocar amygdaliforme G.Don
 Caryocar brasiliense A.St.-Hil.
